--- a/src/Phoenix.Services/Reports/Templates/PlcReport_en-US.xlsx
+++ b/src/Phoenix.Services/Reports/Templates/PlcReport_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maciej\Projekty\Phoenix\src\Phoenix.Services\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C021FE-1599-472B-B9C7-80891DC07C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0FD02B-4474-4C3C-AA42-FBE9D39C7304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -610,12 +610,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -754,11 +767,68 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -769,66 +839,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1162,13 +1183,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="68"/>
+      <c r="A1" s="50"/>
     </row>
     <row r="2" spans="1:1" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
+      <c r="A2" s="50"/>
     </row>
     <row r="3" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
+      <c r="A3" s="50"/>
     </row>
     <row r="4" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
@@ -3043,58 +3064,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
     </row>
     <row r="2" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="72"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
     </row>
     <row r="3" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="55" t="s">
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55" t="s">
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
       <c r="M3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3147,24 +3168,24 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="61" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61" t="s">
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="14" t="s">
         <v>18</v>
       </c>
@@ -9073,7 +9094,7 @@
   <dimension ref="A1:ALE376"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9084,139 +9105,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69"/>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="70"/>
-      <c r="T1" s="70"/>
-      <c r="U1" s="70"/>
-      <c r="V1" s="70"/>
-      <c r="W1" s="70"/>
-      <c r="X1" s="70"/>
-      <c r="Y1" s="70"/>
-      <c r="Z1" s="70"/>
-      <c r="AA1" s="70"/>
-      <c r="AB1" s="70"/>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="70"/>
-      <c r="AE1" s="70"/>
-      <c r="AF1" s="70"/>
-      <c r="AG1" s="70"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="77"/>
     </row>
     <row r="2" spans="1:33" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="52" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="71" t="s">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71" t="s">
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="52" t="s">
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
+      <c r="AB2" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="53"/>
-      <c r="AD2" s="53"/>
-      <c r="AE2" s="53"/>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="54"/>
+      <c r="AC2" s="72"/>
+      <c r="AD2" s="72"/>
+      <c r="AE2" s="72"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="73"/>
     </row>
     <row r="3" spans="1:33" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50" t="s">
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50" t="s">
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="56" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="56"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="55" t="s">
+      <c r="K3" s="55"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="73" t="s">
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="56" t="s">
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="56"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="55" t="s">
+      <c r="T3" s="55"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="56"/>
-      <c r="X3" s="56"/>
-      <c r="Y3" s="73" t="s">
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="60" t="s">
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="65" t="s">
+      <c r="AC3" s="58"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="67"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="59"/>
     </row>
     <row r="4" spans="1:33" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -9320,55 +9341,55 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="51" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51" t="s">
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="57" t="s">
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="75" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="58"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="57" t="s">
+      <c r="Q5" s="63"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="58"/>
-      <c r="U5" s="58"/>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58"/>
-      <c r="X5" s="59"/>
-      <c r="Y5" s="75" t="s">
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="63"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="51" t="s">
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="51"/>
-      <c r="AD5" s="51"/>
-      <c r="AE5" s="51"/>
-      <c r="AF5" s="51"/>
-      <c r="AG5" s="51"/>
+      <c r="AC5" s="61"/>
+      <c r="AD5" s="61"/>
+      <c r="AE5" s="61"/>
+      <c r="AF5" s="61"/>
+      <c r="AG5" s="61"/>
     </row>
     <row r="6" spans="1:33" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
@@ -22219,7 +22240,16 @@
     <row r="375" spans="1:33" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="376" spans="1:33" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="24">
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="S2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A1:AG1"/>
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:F5"/>
@@ -22235,16 +22265,6 @@
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:AG1"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="S2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157505" right="0.39370078740157505" top="0.39370078740157505" bottom="0.39370078740157505" header="0.39370078740157505" footer="0.39370078740157505"/>

--- a/src/Phoenix.Services/Reports/Templates/PlcReport_en-US.xlsx
+++ b/src/Phoenix.Services/Reports/Templates/PlcReport_en-US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maciej\Projekty\Phoenix\src\Phoenix.Services\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0FD02B-4474-4C3C-AA42-FBE9D39C7304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E765E4-AC12-4072-A5C1-229F6CBE5D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="5" r:id="rId1"/>
@@ -788,6 +788,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -821,34 +839,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1171,7 +1171,7 @@
   </sheetPr>
   <dimension ref="A1:AJY376"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
@@ -9093,7 +9093,7 @@
   </sheetPr>
   <dimension ref="A1:ALE376"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:AG1"/>
     </sheetView>
   </sheetViews>
@@ -9140,104 +9140,104 @@
       <c r="AG1" s="77"/>
     </row>
     <row r="2" spans="1:33" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="71" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="74" t="s">
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74" t="s">
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="71" t="s">
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="72"/>
-      <c r="AD2" s="72"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="72"/>
-      <c r="AG2" s="73"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="60"/>
     </row>
     <row r="3" spans="1:33" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70" t="s">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
       <c r="J3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="55"/>
-      <c r="L3" s="68"/>
+      <c r="L3" s="62"/>
       <c r="M3" s="56" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="55"/>
       <c r="O3" s="55"/>
-      <c r="P3" s="67" t="s">
+      <c r="P3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
       <c r="S3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="T3" s="55"/>
-      <c r="U3" s="68"/>
+      <c r="U3" s="62"/>
       <c r="V3" s="56" t="s">
         <v>6</v>
       </c>
       <c r="W3" s="55"/>
       <c r="X3" s="55"/>
-      <c r="Y3" s="67" t="s">
+      <c r="Y3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="68" t="s">
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="57" t="s">
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="59"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="65"/>
     </row>
     <row r="4" spans="1:33" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -9341,55 +9341,55 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61" t="s">
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="62" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="65" t="s">
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="69"/>
+      <c r="N5" s="69"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="63"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="62" t="s">
+      <c r="Q5" s="69"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="63"/>
-      <c r="U5" s="63"/>
-      <c r="V5" s="63"/>
-      <c r="W5" s="63"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="65" t="s">
+      <c r="T5" s="69"/>
+      <c r="U5" s="69"/>
+      <c r="V5" s="69"/>
+      <c r="W5" s="69"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="71" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="63"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="61" t="s">
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="61"/>
-      <c r="AD5" s="61"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="61"/>
-      <c r="AG5" s="61"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="67"/>
+      <c r="AF5" s="67"/>
+      <c r="AG5" s="67"/>
     </row>
     <row r="6" spans="1:33" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
@@ -22241,14 +22241,6 @@
     <row r="376" spans="1:33" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="S2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="A5:C5"/>
@@ -22265,6 +22257,14 @@
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="S2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157505" right="0.39370078740157505" top="0.39370078740157505" bottom="0.39370078740157505" header="0.39370078740157505" footer="0.39370078740157505"/>

--- a/src/Phoenix.Services/Reports/Templates/PlcReport_en-US.xlsx
+++ b/src/Phoenix.Services/Reports/Templates/PlcReport_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maciej\Projekty\Phoenix\src\Phoenix.Services\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E765E4-AC12-4072-A5C1-229F6CBE5D80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B92EC9-239C-497C-B1E3-84E72232735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -768,7 +768,7 @@
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -777,7 +777,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -805,6 +805,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -841,15 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9105,39 +9105,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="75"/>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="77"/>
+      <c r="A1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="65"/>
     </row>
     <row r="2" spans="1:33" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="57" t="s">
@@ -9208,11 +9208,11 @@
       </c>
       <c r="N3" s="55"/>
       <c r="O3" s="55"/>
-      <c r="P3" s="73" t="s">
+      <c r="P3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
       <c r="S3" s="55" t="s">
         <v>3</v>
       </c>
@@ -9223,21 +9223,21 @@
       </c>
       <c r="W3" s="55"/>
       <c r="X3" s="55"/>
-      <c r="Y3" s="73" t="s">
+      <c r="Y3" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
       <c r="AB3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="63" t="s">
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="77"/>
+      <c r="AE3" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="65"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="68"/>
     </row>
     <row r="4" spans="1:33" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -9341,55 +9341,55 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67" t="s">
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="68" t="s">
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="71" t="s">
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="68" t="s">
+      <c r="Q5" s="72"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="71" t="s">
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="69"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="67" t="s">
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="75"/>
+      <c r="AB5" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="70"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="70"/>
     </row>
     <row r="6" spans="1:33" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>

--- a/src/Phoenix.Services/Reports/Templates/PlcReport_en-US.xlsx
+++ b/src/Phoenix.Services/Reports/Templates/PlcReport_en-US.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maciej\Projekty\Phoenix\src\Phoenix.Services\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B92EC9-239C-497C-B1E3-84E72232735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D96672-74D5-41BA-8F2D-D73B53DBB352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,24 +788,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,7 +830,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9105,139 +9105,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="65"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="59"/>
     </row>
     <row r="2" spans="1:33" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61" t="s">
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="61"/>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61" t="s">
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="58" t="s">
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="59"/>
-      <c r="AD2" s="59"/>
-      <c r="AE2" s="59"/>
-      <c r="AF2" s="59"/>
-      <c r="AG2" s="60"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="76"/>
     </row>
     <row r="3" spans="1:33" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="57"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
       <c r="J3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="K3" s="55"/>
-      <c r="L3" s="62"/>
+      <c r="L3" s="71"/>
       <c r="M3" s="56" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="55"/>
       <c r="O3" s="55"/>
-      <c r="P3" s="76" t="s">
+      <c r="P3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
       <c r="S3" s="55" t="s">
         <v>3</v>
       </c>
       <c r="T3" s="55"/>
-      <c r="U3" s="62"/>
+      <c r="U3" s="71"/>
       <c r="V3" s="56" t="s">
         <v>6</v>
       </c>
       <c r="W3" s="55"/>
       <c r="X3" s="55"/>
-      <c r="Y3" s="76" t="s">
+      <c r="Y3" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="62" t="s">
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="66" t="s">
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="68"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="62"/>
     </row>
     <row r="4" spans="1:33" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
@@ -9341,55 +9341,55 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70" t="s">
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70" t="s">
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71" t="s">
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="74" t="s">
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="71" t="s">
+      <c r="Q5" s="66"/>
+      <c r="R5" s="69"/>
+      <c r="S5" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="74" t="s">
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="75"/>
-      <c r="AB5" s="70" t="s">
+      <c r="Z5" s="66"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="70"/>
-      <c r="AE5" s="70"/>
-      <c r="AF5" s="70"/>
-      <c r="AG5" s="70"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
     </row>
     <row r="6" spans="1:33" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
@@ -22241,6 +22241,14 @@
     <row r="376" spans="1:33" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A2:C3"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:R2"/>
+    <mergeCell ref="S2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="AE3:AG3"/>
     <mergeCell ref="A5:C5"/>
@@ -22257,14 +22265,6 @@
     <mergeCell ref="V3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="S2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157505" right="0.39370078740157505" top="0.39370078740157505" bottom="0.39370078740157505" header="0.39370078740157505" footer="0.39370078740157505"/>

--- a/src/Phoenix.Services/Reports/Templates/PlcReport_en-US.xlsx
+++ b/src/Phoenix.Services/Reports/Templates/PlcReport_en-US.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Maciej\Projekty\Phoenix\src\Phoenix.Services\Reports\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923653EA-34D6-401E-A743-37F161520537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AFF5A5-E5A2-449B-8DE0-C46D8FF65ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="5" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Plc" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Base!$A$1:$A$372</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Meter!$A$1:$N$372</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">Plc!$A$1:$AG$372</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Base!$A$3:$A$374</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Meter!$A$3:$N$374</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Plc!$A$3:$AG$374</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
@@ -108,7 +108,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -144,6 +144,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000066"/>
+      <name val="Arial CE"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Arial CE"/>
       <charset val="238"/>
     </font>
@@ -647,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -780,6 +787,15 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -863,12 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1188,11 +1198,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJY376"/>
+  <dimension ref="A1:AJY378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:A5"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1201,1860 +1209,1864 @@
     <col min="962" max="962" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="76"/>
-    </row>
-    <row r="2" spans="1:1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="77"/>
-    </row>
-    <row r="3" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-    </row>
-    <row r="4" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-    </row>
-    <row r="5" spans="1:1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="48"/>
-    </row>
-    <row r="6" spans="1:1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
+    <row r="1" spans="1:1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48"/>
+    </row>
+    <row r="2" spans="1:1" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:1" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49"/>
+    </row>
+    <row r="4" spans="1:1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+    </row>
+    <row r="5" spans="1:1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="50"/>
+    </row>
+    <row r="6" spans="1:1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50"/>
+    </row>
+    <row r="7" spans="1:1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="51"/>
+    </row>
+    <row r="8" spans="1:1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+    <row r="9" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="43">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>8</v>
+      <c r="A13" s="43">
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43">
-        <v>10</v>
+      <c r="A15" s="23">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="32">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="23">
-        <v>14</v>
+      <c r="A19" s="43">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="32">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="43">
-        <v>16</v>
+      <c r="A21" s="23">
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="32">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
-        <v>20</v>
+      <c r="A25" s="43">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43">
-        <v>22</v>
+      <c r="A27" s="23">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="32">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="23">
-        <v>26</v>
+      <c r="A31" s="43">
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="32">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43">
-        <v>28</v>
+      <c r="A33" s="23">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="32">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="32">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23">
-        <v>32</v>
+      <c r="A37" s="43">
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="32">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43">
-        <v>34</v>
+      <c r="A39" s="23">
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="32">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="32">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="23">
-        <v>38</v>
+      <c r="A43" s="43">
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="32">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="43">
-        <v>40</v>
+      <c r="A45" s="23">
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="32">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="43">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="32">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23">
-        <v>44</v>
+      <c r="A49" s="43">
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="32">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="43">
-        <v>46</v>
+      <c r="A51" s="23">
+        <v>44</v>
       </c>
     </row>
     <row r="52" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="32">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="43">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="32">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="55" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="23">
-        <v>50</v>
+      <c r="A55" s="43">
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="32">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="43">
-        <v>52</v>
+      <c r="A57" s="23">
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="32">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="43">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="32">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23">
-        <v>56</v>
+      <c r="A61" s="43">
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="32">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="43">
-        <v>58</v>
+      <c r="A63" s="23">
+        <v>56</v>
       </c>
     </row>
     <row r="64" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="32">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="43">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="32">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="23">
-        <v>62</v>
+      <c r="A67" s="43">
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="32">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="43">
-        <v>64</v>
+      <c r="A69" s="23">
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="32">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="43">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="32">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="73" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="23">
-        <v>68</v>
+      <c r="A73" s="43">
+        <v>66</v>
       </c>
     </row>
     <row r="74" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="32">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="43">
-        <v>70</v>
+      <c r="A75" s="23">
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="32">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="43">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="32">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="23">
-        <v>74</v>
+      <c r="A79" s="43">
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="32">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="43">
-        <v>76</v>
+      <c r="A81" s="23">
+        <v>74</v>
       </c>
     </row>
     <row r="82" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="32">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="83" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="43">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="32">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="23">
-        <v>80</v>
+      <c r="A85" s="43">
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="32">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="43">
-        <v>82</v>
+      <c r="A87" s="23">
+        <v>80</v>
       </c>
     </row>
     <row r="88" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="32">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="89" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="90" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="32">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="91" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="23">
-        <v>86</v>
+      <c r="A91" s="43">
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="32">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="43">
-        <v>88</v>
+      <c r="A93" s="23">
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="32">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="95" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="43">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="96" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="32">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="97" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="23">
-        <v>92</v>
+      <c r="A97" s="43">
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="32">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="99" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="43">
-        <v>94</v>
+      <c r="A99" s="23">
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="32">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="101" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="43">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="102" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="32">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="103" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="23">
-        <v>98</v>
+      <c r="A103" s="43">
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="32">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="105" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="43">
-        <v>100</v>
+      <c r="A105" s="23">
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="32">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="43">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="32">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="109" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="23">
-        <v>104</v>
+      <c r="A109" s="43">
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="32">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="111" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="43">
-        <v>106</v>
+      <c r="A111" s="23">
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="32">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="113" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="43">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="114" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="32">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="115" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="23">
-        <v>110</v>
+      <c r="A115" s="43">
+        <v>108</v>
       </c>
     </row>
     <row r="116" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="32">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="43">
-        <v>112</v>
+      <c r="A117" s="23">
+        <v>110</v>
       </c>
     </row>
     <row r="118" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="32">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="119" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="43">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="120" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="32">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="23">
-        <v>116</v>
+      <c r="A121" s="43">
+        <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="32">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="123" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="43">
-        <v>118</v>
+      <c r="A123" s="23">
+        <v>116</v>
       </c>
     </row>
     <row r="124" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="32">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="125" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="43">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="126" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="32">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="23">
-        <v>122</v>
+      <c r="A127" s="43">
+        <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="32">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="129" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="43">
-        <v>124</v>
+      <c r="A129" s="23">
+        <v>122</v>
       </c>
     </row>
     <row r="130" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="32">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="131" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="43">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="32">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="23">
-        <v>128</v>
+      <c r="A133" s="43">
+        <v>126</v>
       </c>
     </row>
     <row r="134" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="32">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="43">
-        <v>130</v>
+      <c r="A135" s="23">
+        <v>128</v>
       </c>
     </row>
     <row r="136" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="32">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="137" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="43">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="138" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="32">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="139" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="23">
-        <v>134</v>
+      <c r="A139" s="43">
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="32">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="141" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="43">
-        <v>136</v>
+      <c r="A141" s="23">
+        <v>134</v>
       </c>
     </row>
     <row r="142" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="32">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="143" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="43">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="32">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="145" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="23">
-        <v>140</v>
+      <c r="A145" s="43">
+        <v>138</v>
       </c>
     </row>
     <row r="146" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="32">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="43">
-        <v>142</v>
+      <c r="A147" s="23">
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="32">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="149" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="43">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="150" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="32">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="151" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="23">
-        <v>146</v>
+      <c r="A151" s="43">
+        <v>144</v>
       </c>
     </row>
     <row r="152" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="32">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="153" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="43">
-        <v>148</v>
+      <c r="A153" s="23">
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="32">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="155" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="43">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="32">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="23">
-        <v>152</v>
+      <c r="A157" s="43">
+        <v>150</v>
       </c>
     </row>
     <row r="158" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="32">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="43">
-        <v>154</v>
+      <c r="A159" s="23">
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="32">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="161" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="43">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="32">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="23">
-        <v>158</v>
+      <c r="A163" s="43">
+        <v>156</v>
       </c>
     </row>
     <row r="164" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="32">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="165" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="43">
-        <v>160</v>
+      <c r="A165" s="23">
+        <v>158</v>
       </c>
     </row>
     <row r="166" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="32">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="167" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="43">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="168" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="32">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="23">
-        <v>164</v>
+      <c r="A169" s="43">
+        <v>162</v>
       </c>
     </row>
     <row r="170" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="32">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="171" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="43">
-        <v>166</v>
+      <c r="A171" s="23">
+        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="32">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="43">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="174" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="32">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="175" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="23">
-        <v>170</v>
+      <c r="A175" s="43">
+        <v>168</v>
       </c>
     </row>
     <row r="176" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="32">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="43">
-        <v>172</v>
+      <c r="A177" s="23">
+        <v>170</v>
       </c>
     </row>
     <row r="178" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="32">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="179" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="43">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="180" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="32">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="181" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="23">
-        <v>176</v>
+      <c r="A181" s="43">
+        <v>174</v>
       </c>
     </row>
     <row r="182" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="32">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="183" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="43">
-        <v>178</v>
+      <c r="A183" s="23">
+        <v>176</v>
       </c>
     </row>
     <row r="184" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="32">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="185" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="43">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="186" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="32">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="187" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="23">
-        <v>182</v>
+      <c r="A187" s="43">
+        <v>180</v>
       </c>
     </row>
     <row r="188" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="32">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="189" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="43">
-        <v>184</v>
+      <c r="A189" s="23">
+        <v>182</v>
       </c>
     </row>
     <row r="190" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="32">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="191" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="43">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="192" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="32">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="193" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="23">
-        <v>188</v>
+      <c r="A193" s="43">
+        <v>186</v>
       </c>
     </row>
     <row r="194" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="32">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="195" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="43">
-        <v>190</v>
+      <c r="A195" s="23">
+        <v>188</v>
       </c>
     </row>
     <row r="196" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="32">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="43">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="32">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="23">
-        <v>194</v>
+      <c r="A199" s="43">
+        <v>192</v>
       </c>
     </row>
     <row r="200" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="32">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="201" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="43">
-        <v>196</v>
+      <c r="A201" s="23">
+        <v>194</v>
       </c>
     </row>
     <row r="202" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="32">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="203" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="43">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="204" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="32">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="205" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="23">
-        <v>200</v>
+      <c r="A205" s="43">
+        <v>198</v>
       </c>
     </row>
     <row r="206" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="32">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="207" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="43">
-        <v>202</v>
+      <c r="A207" s="23">
+        <v>200</v>
       </c>
     </row>
     <row r="208" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="32">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="209" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="43">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="210" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="32">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="211" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="23">
-        <v>206</v>
+      <c r="A211" s="43">
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="32">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="213" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="43">
-        <v>208</v>
+      <c r="A213" s="23">
+        <v>206</v>
       </c>
     </row>
     <row r="214" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="32">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="215" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="43">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="216" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="32">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="217" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="23">
-        <v>212</v>
+      <c r="A217" s="43">
+        <v>210</v>
       </c>
     </row>
     <row r="218" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="32">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="219" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="43">
-        <v>214</v>
+      <c r="A219" s="23">
+        <v>212</v>
       </c>
     </row>
     <row r="220" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="32">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="221" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="43">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="222" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="32">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="223" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="23">
-        <v>218</v>
+      <c r="A223" s="43">
+        <v>216</v>
       </c>
     </row>
     <row r="224" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="32">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="225" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="43">
-        <v>220</v>
+      <c r="A225" s="23">
+        <v>218</v>
       </c>
     </row>
     <row r="226" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="32">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="227" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="43">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="228" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="32">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="229" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="23">
-        <v>224</v>
+      <c r="A229" s="43">
+        <v>222</v>
       </c>
     </row>
     <row r="230" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="32">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="231" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A231" s="43">
-        <v>226</v>
+      <c r="A231" s="23">
+        <v>224</v>
       </c>
     </row>
     <row r="232" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="32">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="233" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="43">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="234" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="32">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="235" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A235" s="23">
-        <v>230</v>
+      <c r="A235" s="43">
+        <v>228</v>
       </c>
     </row>
     <row r="236" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="32">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="237" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A237" s="43">
-        <v>232</v>
+      <c r="A237" s="23">
+        <v>230</v>
       </c>
     </row>
     <row r="238" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="32">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="239" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="43">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="240" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="32">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="241" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A241" s="23">
-        <v>236</v>
+      <c r="A241" s="43">
+        <v>234</v>
       </c>
     </row>
     <row r="242" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="32">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="243" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A243" s="43">
-        <v>238</v>
+      <c r="A243" s="23">
+        <v>236</v>
       </c>
     </row>
     <row r="244" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="32">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="245" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="43">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="246" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="32">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="247" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A247" s="23">
-        <v>242</v>
+      <c r="A247" s="43">
+        <v>240</v>
       </c>
     </row>
     <row r="248" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="32">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="249" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="43">
-        <v>244</v>
+      <c r="A249" s="23">
+        <v>242</v>
       </c>
     </row>
     <row r="250" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="32">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="251" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="43">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="252" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="32">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="253" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A253" s="23">
-        <v>248</v>
+      <c r="A253" s="43">
+        <v>246</v>
       </c>
     </row>
     <row r="254" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="32">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="255" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A255" s="43">
-        <v>250</v>
+      <c r="A255" s="23">
+        <v>248</v>
       </c>
     </row>
     <row r="256" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="32">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="257" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="43">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="258" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="32">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="259" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A259" s="23">
-        <v>254</v>
+      <c r="A259" s="43">
+        <v>252</v>
       </c>
     </row>
     <row r="260" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="32">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="261" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A261" s="43">
-        <v>256</v>
+      <c r="A261" s="23">
+        <v>254</v>
       </c>
     </row>
     <row r="262" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="32">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="263" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="43">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="264" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="32">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="265" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="23">
-        <v>260</v>
+      <c r="A265" s="43">
+        <v>258</v>
       </c>
     </row>
     <row r="266" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="32">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="267" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="43">
-        <v>262</v>
+      <c r="A267" s="23">
+        <v>260</v>
       </c>
     </row>
     <row r="268" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="32">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="269" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="43">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="270" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="32">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="271" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A271" s="23">
-        <v>266</v>
+      <c r="A271" s="43">
+        <v>264</v>
       </c>
     </row>
     <row r="272" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="32">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="273" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A273" s="43">
-        <v>268</v>
+      <c r="A273" s="23">
+        <v>266</v>
       </c>
     </row>
     <row r="274" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="32">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="275" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="43">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="276" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="32">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="277" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="23">
-        <v>272</v>
+      <c r="A277" s="43">
+        <v>270</v>
       </c>
     </row>
     <row r="278" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="32">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="279" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="43">
-        <v>274</v>
+      <c r="A279" s="23">
+        <v>272</v>
       </c>
     </row>
     <row r="280" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="32">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="281" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="43">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="282" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="32">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="283" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="23">
-        <v>278</v>
+      <c r="A283" s="43">
+        <v>276</v>
       </c>
     </row>
     <row r="284" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="32">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="285" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="43">
-        <v>280</v>
+      <c r="A285" s="23">
+        <v>278</v>
       </c>
     </row>
     <row r="286" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="32">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="287" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="43">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="288" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="32">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="289" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="23">
-        <v>284</v>
+      <c r="A289" s="43">
+        <v>282</v>
       </c>
     </row>
     <row r="290" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="32">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="291" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A291" s="43">
-        <v>286</v>
+      <c r="A291" s="23">
+        <v>284</v>
       </c>
     </row>
     <row r="292" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="32">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="293" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="43">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="294" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="32">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="295" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A295" s="23">
-        <v>290</v>
+      <c r="A295" s="43">
+        <v>288</v>
       </c>
     </row>
     <row r="296" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="32">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="297" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A297" s="43">
-        <v>292</v>
+      <c r="A297" s="23">
+        <v>290</v>
       </c>
     </row>
     <row r="298" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="32">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="299" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="43">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="300" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="32">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="301" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A301" s="23">
-        <v>296</v>
+      <c r="A301" s="43">
+        <v>294</v>
       </c>
     </row>
     <row r="302" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="32">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="303" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="43">
-        <v>298</v>
+      <c r="A303" s="23">
+        <v>296</v>
       </c>
     </row>
     <row r="304" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="32">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="305" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="43">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="306" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="32">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="307" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A307" s="23">
-        <v>302</v>
+      <c r="A307" s="43">
+        <v>300</v>
       </c>
     </row>
     <row r="308" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="32">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="309" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A309" s="43">
-        <v>304</v>
+      <c r="A309" s="23">
+        <v>302</v>
       </c>
     </row>
     <row r="310" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="32">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="311" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="43">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="312" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="32">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="313" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A313" s="23">
-        <v>308</v>
+      <c r="A313" s="43">
+        <v>306</v>
       </c>
     </row>
     <row r="314" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="32">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="315" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="43">
-        <v>310</v>
+      <c r="A315" s="23">
+        <v>308</v>
       </c>
     </row>
     <row r="316" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="32">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="317" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="43">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="318" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="32">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="319" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A319" s="23">
-        <v>314</v>
+      <c r="A319" s="43">
+        <v>312</v>
       </c>
     </row>
     <row r="320" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="32">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="321" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A321" s="43">
-        <v>316</v>
+      <c r="A321" s="23">
+        <v>314</v>
       </c>
     </row>
     <row r="322" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="32">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="323" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="43">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="324" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="32">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="325" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="23">
-        <v>320</v>
+      <c r="A325" s="43">
+        <v>318</v>
       </c>
     </row>
     <row r="326" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="32">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="327" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A327" s="43">
-        <v>322</v>
+      <c r="A327" s="23">
+        <v>320</v>
       </c>
     </row>
     <row r="328" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="32">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="329" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="43">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="330" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="32">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="331" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A331" s="23">
-        <v>326</v>
+      <c r="A331" s="43">
+        <v>324</v>
       </c>
     </row>
     <row r="332" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="32">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="333" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A333" s="43">
-        <v>328</v>
+      <c r="A333" s="23">
+        <v>326</v>
       </c>
     </row>
     <row r="334" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="32">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="335" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="43">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="336" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="32">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="337" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A337" s="23">
-        <v>332</v>
+      <c r="A337" s="43">
+        <v>330</v>
       </c>
     </row>
     <row r="338" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="32">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="339" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A339" s="43">
-        <v>334</v>
+      <c r="A339" s="23">
+        <v>332</v>
       </c>
     </row>
     <row r="340" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="32">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="341" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="43">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="342" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="32">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="343" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="23">
-        <v>338</v>
+      <c r="A343" s="43">
+        <v>336</v>
       </c>
     </row>
     <row r="344" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="32">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="345" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A345" s="43">
-        <v>340</v>
+      <c r="A345" s="23">
+        <v>338</v>
       </c>
     </row>
     <row r="346" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="32">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="347" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="43">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="348" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="32">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="349" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A349" s="23">
-        <v>344</v>
+      <c r="A349" s="43">
+        <v>342</v>
       </c>
     </row>
     <row r="350" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="32">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="351" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A351" s="43">
-        <v>346</v>
+      <c r="A351" s="23">
+        <v>344</v>
       </c>
     </row>
     <row r="352" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="32">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="353" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="43">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="354" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="32">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="355" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A355" s="23">
-        <v>350</v>
+      <c r="A355" s="43">
+        <v>348</v>
       </c>
     </row>
     <row r="356" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="32">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="357" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A357" s="43">
-        <v>352</v>
+      <c r="A357" s="23">
+        <v>350</v>
       </c>
     </row>
     <row r="358" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="32">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="359" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="43">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="360" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="32">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="361" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A361" s="23">
-        <v>356</v>
+      <c r="A361" s="43">
+        <v>354</v>
       </c>
     </row>
     <row r="362" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="32">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="363" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="43">
-        <v>358</v>
+      <c r="A363" s="23">
+        <v>356</v>
       </c>
     </row>
     <row r="364" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="32">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="365" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="43">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="366" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="32">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="367" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A367" s="23">
-        <v>362</v>
+      <c r="A367" s="43">
+        <v>360</v>
       </c>
     </row>
     <row r="368" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="32">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="369" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A369" s="43">
-        <v>364</v>
+      <c r="A369" s="23">
+        <v>362</v>
       </c>
     </row>
     <row r="370" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="32">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="43">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="32">
         <v>365</v>
       </c>
     </row>
-    <row r="371" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A371" s="43">
+    <row r="373" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="43">
         <v>366</v>
       </c>
     </row>
-    <row r="372" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A372" s="45"/>
-    </row>
-    <row r="374" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" spans="1:1" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" spans="1:1" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" spans="1:1" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="45"/>
+    </row>
+    <row r="376" spans="1:1" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" spans="1:1" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="1:1" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157505" right="0.39370078740157505" top="0.39370078740157505" bottom="0.39370078740157505" header="0.39370078740157505" footer="0.39370078740157505"/>
@@ -3067,11 +3079,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AKL376"/>
+  <dimension ref="A1:AKL378"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:N1"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3082,185 +3092,184 @@
     <col min="975" max="975" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-    </row>
-    <row r="2" spans="1:14" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-    </row>
-    <row r="3" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
-        <v>6</v>
-      </c>
+    <row r="1" spans="1:974" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48"/>
+      <c r="AJZ1"/>
+      <c r="AKA1"/>
+      <c r="AKB1"/>
+      <c r="AKC1"/>
+      <c r="AKD1"/>
+      <c r="AKE1"/>
+      <c r="AKF1"/>
+      <c r="AKG1"/>
+      <c r="AKH1"/>
+      <c r="AKI1"/>
+      <c r="AKJ1"/>
+      <c r="AKK1"/>
+      <c r="AKL1"/>
+    </row>
+    <row r="2" spans="1:974" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJZ2"/>
+      <c r="AKA2"/>
+      <c r="AKB2"/>
+      <c r="AKC2"/>
+      <c r="AKD2"/>
+      <c r="AKE2"/>
+      <c r="AKF2"/>
+      <c r="AKG2"/>
+      <c r="AKH2"/>
+      <c r="AKI2"/>
+      <c r="AKJ2"/>
+      <c r="AKK2"/>
+      <c r="AKL2"/>
+    </row>
+    <row r="3" spans="1:974" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
-      <c r="G3" s="54" t="s">
-        <v>7</v>
-      </c>
+      <c r="G3" s="54"/>
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
-      <c r="J3" s="54" t="s">
-        <v>8</v>
-      </c>
+      <c r="J3" s="54"/>
       <c r="K3" s="54"/>
       <c r="L3" s="54"/>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+    </row>
+    <row r="4" spans="1:974" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+    </row>
+    <row r="5" spans="1:974" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="6" spans="1:974" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49" t="s">
+    <row r="7" spans="1:974" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50" t="s">
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50" t="s">
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="12" t="s">
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="13" t="s">
+      <c r="N7" s="13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="22"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="31"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="42"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:974" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+    </row>
+    <row r="9" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -3276,7 +3285,7 @@
       <c r="M9" s="30"/>
       <c r="N9" s="31"/>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="33"/>
       <c r="C10" s="33"/>
@@ -3292,7 +3301,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="42"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -3308,7 +3317,7 @@
       <c r="M11" s="30"/>
       <c r="N11" s="31"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="33"/>
       <c r="C12" s="33"/>
@@ -3324,7 +3333,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="42"/>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
@@ -3340,7 +3349,7 @@
       <c r="M13" s="30"/>
       <c r="N13" s="31"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="33"/>
       <c r="C14" s="33"/>
@@ -3356,7 +3365,7 @@
       <c r="M14" s="41"/>
       <c r="N14" s="42"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -3372,7 +3381,7 @@
       <c r="M15" s="30"/>
       <c r="N15" s="31"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:974" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="33"/>
@@ -9052,7 +9061,7 @@
       <c r="M370" s="41"/>
       <c r="N370" s="42"/>
     </row>
-    <row r="371" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="24"/>
       <c r="B371" s="24"/>
       <c r="C371" s="24"/>
@@ -9068,36 +9077,68 @@
       <c r="M371" s="30"/>
       <c r="N371" s="31"/>
     </row>
-    <row r="372" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="46"/>
-      <c r="B372" s="46"/>
-      <c r="C372" s="46"/>
-      <c r="D372" s="46"/>
-      <c r="E372" s="46"/>
-      <c r="F372" s="46"/>
-      <c r="G372" s="46"/>
-      <c r="H372" s="46"/>
-      <c r="I372" s="46"/>
-      <c r="J372" s="46"/>
-      <c r="K372" s="46"/>
-      <c r="L372" s="46"/>
-      <c r="M372" s="47"/>
-      <c r="N372" s="47"/>
-    </row>
-    <row r="374" spans="1:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" spans="1:14" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="33"/>
+      <c r="B372" s="33"/>
+      <c r="C372" s="33"/>
+      <c r="D372" s="34"/>
+      <c r="E372" s="33"/>
+      <c r="F372" s="33"/>
+      <c r="G372" s="33"/>
+      <c r="H372" s="33"/>
+      <c r="I372" s="33"/>
+      <c r="J372" s="40"/>
+      <c r="K372" s="34"/>
+      <c r="L372" s="40"/>
+      <c r="M372" s="41"/>
+      <c r="N372" s="42"/>
+    </row>
+    <row r="373" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="24"/>
+      <c r="B373" s="24"/>
+      <c r="C373" s="24"/>
+      <c r="D373" s="25"/>
+      <c r="E373" s="24"/>
+      <c r="F373" s="24"/>
+      <c r="G373" s="24"/>
+      <c r="H373" s="24"/>
+      <c r="I373" s="24"/>
+      <c r="J373" s="27"/>
+      <c r="K373" s="25"/>
+      <c r="L373" s="27"/>
+      <c r="M373" s="30"/>
+      <c r="N373" s="31"/>
+    </row>
+    <row r="374" spans="1:14" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="46"/>
+      <c r="B374" s="46"/>
+      <c r="C374" s="46"/>
+      <c r="D374" s="46"/>
+      <c r="E374" s="46"/>
+      <c r="F374" s="46"/>
+      <c r="G374" s="46"/>
+      <c r="H374" s="46"/>
+      <c r="I374" s="46"/>
+      <c r="J374" s="46"/>
+      <c r="K374" s="46"/>
+      <c r="L374" s="46"/>
+      <c r="M374" s="47"/>
+      <c r="N374" s="47"/>
+    </row>
+    <row r="376" spans="1:14" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="1:14" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157505" right="0.39370078740157505" top="0.39370078740157505" bottom="0.39370078740157505" header="0.39370078740157505" footer="0.39370078740157505"/>
@@ -9110,11 +9151,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:ALE376"/>
+  <dimension ref="A1:ALE378"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:AG1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9123,399 +9162,398 @@
     <col min="994" max="994" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="57"/>
-    </row>
-    <row r="2" spans="1:33" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="74"/>
-    </row>
-    <row r="3" spans="1:33" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="K3" s="53"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="53"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="68" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="69" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:993" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48"/>
+      <c r="AJZ1"/>
+      <c r="AKA1"/>
+      <c r="AKB1"/>
+      <c r="AKC1"/>
+      <c r="AKD1"/>
+      <c r="AKE1"/>
+      <c r="AKF1"/>
+      <c r="AKG1"/>
+      <c r="AKH1"/>
+      <c r="AKI1"/>
+      <c r="AKJ1"/>
+      <c r="AKK1"/>
+      <c r="AKL1"/>
+      <c r="AKM1"/>
+      <c r="AKN1"/>
+      <c r="AKO1"/>
+      <c r="AKP1"/>
+      <c r="AKQ1"/>
+      <c r="AKR1"/>
+      <c r="AKS1"/>
+      <c r="AKT1"/>
+      <c r="AKU1"/>
+      <c r="AKV1"/>
+      <c r="AKW1"/>
+      <c r="AKX1"/>
+      <c r="AKY1"/>
+      <c r="AKZ1"/>
+      <c r="ALA1"/>
+      <c r="ALB1"/>
+      <c r="ALC1"/>
+      <c r="ALD1"/>
+      <c r="ALE1"/>
+    </row>
+    <row r="2" spans="1:993" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AJZ2"/>
+      <c r="AKA2"/>
+      <c r="AKB2"/>
+      <c r="AKC2"/>
+      <c r="AKD2"/>
+      <c r="AKE2"/>
+      <c r="AKF2"/>
+      <c r="AKG2"/>
+      <c r="AKH2"/>
+      <c r="AKI2"/>
+      <c r="AKJ2"/>
+      <c r="AKK2"/>
+      <c r="AKL2"/>
+      <c r="AKM2"/>
+      <c r="AKN2"/>
+      <c r="AKO2"/>
+      <c r="AKP2"/>
+      <c r="AKQ2"/>
+      <c r="AKR2"/>
+      <c r="AKS2"/>
+      <c r="AKT2"/>
+      <c r="AKU2"/>
+      <c r="AKV2"/>
+      <c r="AKW2"/>
+      <c r="AKX2"/>
+      <c r="AKY2"/>
+      <c r="AKZ2"/>
+      <c r="ALA2"/>
+      <c r="ALB2"/>
+      <c r="ALC2"/>
+      <c r="ALD2"/>
+      <c r="ALE2"/>
+    </row>
+    <row r="3" spans="1:993" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+      <c r="N3" s="59"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="59"/>
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
       <c r="AC3" s="59"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="58" t="s">
-        <v>5</v>
-      </c>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="59"/>
       <c r="AF3" s="59"/>
       <c r="AG3" s="60"/>
     </row>
-    <row r="4" spans="1:33" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:993" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="75" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="77"/>
+    </row>
+    <row r="5" spans="1:993" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="56"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" s="56"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="W5" s="56"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="71" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="63"/>
+    </row>
+    <row r="6" spans="1:993" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="V6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="W4" s="5" t="s">
+      <c r="W6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="5" t="s">
+      <c r="X6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" s="7" t="s">
+      <c r="Y6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="5" t="s">
+      <c r="Z6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="AB4" s="4" t="s">
+      <c r="AB6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="AC4" s="5" t="s">
+      <c r="AC6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AD4" s="5" t="s">
+      <c r="AD6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AE6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="5" t="s">
+      <c r="AF6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AG6" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="61" t="s">
+    <row r="7" spans="1:993" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62" t="s">
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63" t="s">
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="66" t="s">
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="63" t="s">
+      <c r="Q7" s="67"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="65"/>
-      <c r="Y5" s="66" t="s">
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="67"/>
+      <c r="X7" s="68"/>
+      <c r="Y7" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="62" t="s">
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="62"/>
-      <c r="AE5" s="62"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-    </row>
-    <row r="6" spans="1:33" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="20"/>
-    </row>
-    <row r="7" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="24"/>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="25"/>
-      <c r="AE7" s="25"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="29"/>
-    </row>
-    <row r="8" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="34"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="38"/>
-      <c r="AB8" s="39"/>
-      <c r="AC8" s="34"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="38"/>
-    </row>
-    <row r="9" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="65"/>
+    </row>
+    <row r="8" spans="1:993" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="15"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="20"/>
+    </row>
+    <row r="9" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25"/>
       <c r="C9" s="24"/>
@@ -9550,16 +9588,16 @@
       <c r="AF9" s="25"/>
       <c r="AG9" s="29"/>
     </row>
-    <row r="10" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="33"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="44"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
       <c r="L10" s="34"/>
@@ -9585,7 +9623,7 @@
       <c r="AF10" s="34"/>
       <c r="AG10" s="38"/>
     </row>
-    <row r="11" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="24"/>
@@ -9620,7 +9658,7 @@
       <c r="AF11" s="25"/>
       <c r="AG11" s="29"/>
     </row>
-    <row r="12" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="33"/>
@@ -9655,7 +9693,7 @@
       <c r="AF12" s="34"/>
       <c r="AG12" s="38"/>
     </row>
-    <row r="13" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="25"/>
       <c r="C13" s="24"/>
@@ -9690,7 +9728,7 @@
       <c r="AF13" s="25"/>
       <c r="AG13" s="29"/>
     </row>
-    <row r="14" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="33"/>
@@ -9725,7 +9763,7 @@
       <c r="AF14" s="34"/>
       <c r="AG14" s="38"/>
     </row>
-    <row r="15" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="25"/>
       <c r="C15" s="24"/>
@@ -9760,16 +9798,16 @@
       <c r="AF15" s="25"/>
       <c r="AG15" s="29"/>
     </row>
-    <row r="16" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:993" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="33"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="37"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="44"/>
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
       <c r="L16" s="34"/>
@@ -9834,12 +9872,12 @@
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="33"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="44"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
       <c r="L18" s="34"/>
@@ -10044,12 +10082,12 @@
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
       <c r="C24" s="33"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="37"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="44"/>
       <c r="J24" s="33"/>
       <c r="K24" s="33"/>
       <c r="L24" s="34"/>
@@ -10114,12 +10152,12 @@
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="33"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="44"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
       <c r="L26" s="34"/>
@@ -10324,12 +10362,12 @@
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="33"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="37"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="44"/>
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
       <c r="L32" s="34"/>
@@ -10394,12 +10432,12 @@
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="33"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="44"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
       <c r="J34" s="33"/>
       <c r="K34" s="33"/>
       <c r="L34" s="34"/>
@@ -10604,12 +10642,12 @@
       <c r="A40" s="33"/>
       <c r="B40" s="34"/>
       <c r="C40" s="33"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="37"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="44"/>
       <c r="J40" s="33"/>
       <c r="K40" s="33"/>
       <c r="L40" s="34"/>
@@ -10674,12 +10712,12 @@
       <c r="A42" s="33"/>
       <c r="B42" s="34"/>
       <c r="C42" s="33"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="44"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="37"/>
       <c r="J42" s="33"/>
       <c r="K42" s="33"/>
       <c r="L42" s="34"/>
@@ -10884,12 +10922,12 @@
       <c r="A48" s="33"/>
       <c r="B48" s="34"/>
       <c r="C48" s="33"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="37"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="44"/>
       <c r="J48" s="33"/>
       <c r="K48" s="33"/>
       <c r="L48" s="34"/>
@@ -10954,12 +10992,12 @@
       <c r="A50" s="33"/>
       <c r="B50" s="34"/>
       <c r="C50" s="33"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="44"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="44"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="37"/>
       <c r="J50" s="33"/>
       <c r="K50" s="33"/>
       <c r="L50" s="34"/>
@@ -11164,12 +11202,12 @@
       <c r="A56" s="33"/>
       <c r="B56" s="34"/>
       <c r="C56" s="33"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="36"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="37"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="44"/>
       <c r="J56" s="33"/>
       <c r="K56" s="33"/>
       <c r="L56" s="34"/>
@@ -11234,12 +11272,12 @@
       <c r="A58" s="33"/>
       <c r="B58" s="34"/>
       <c r="C58" s="33"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="44"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="37"/>
       <c r="J58" s="33"/>
       <c r="K58" s="33"/>
       <c r="L58" s="34"/>
@@ -11444,12 +11482,12 @@
       <c r="A64" s="33"/>
       <c r="B64" s="34"/>
       <c r="C64" s="33"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="37"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="44"/>
       <c r="J64" s="33"/>
       <c r="K64" s="33"/>
       <c r="L64" s="34"/>
@@ -11514,12 +11552,12 @@
       <c r="A66" s="33"/>
       <c r="B66" s="34"/>
       <c r="C66" s="33"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="44"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="44"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="37"/>
       <c r="J66" s="33"/>
       <c r="K66" s="33"/>
       <c r="L66" s="34"/>
@@ -11724,12 +11762,12 @@
       <c r="A72" s="33"/>
       <c r="B72" s="34"/>
       <c r="C72" s="33"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="37"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="40"/>
+      <c r="I72" s="44"/>
       <c r="J72" s="33"/>
       <c r="K72" s="33"/>
       <c r="L72" s="34"/>
@@ -11794,12 +11832,12 @@
       <c r="A74" s="33"/>
       <c r="B74" s="34"/>
       <c r="C74" s="33"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="44"/>
-      <c r="G74" s="39"/>
-      <c r="H74" s="40"/>
-      <c r="I74" s="44"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="37"/>
       <c r="J74" s="33"/>
       <c r="K74" s="33"/>
       <c r="L74" s="34"/>
@@ -12004,12 +12042,12 @@
       <c r="A80" s="33"/>
       <c r="B80" s="34"/>
       <c r="C80" s="33"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="36"/>
-      <c r="I80" s="37"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="44"/>
       <c r="J80" s="33"/>
       <c r="K80" s="33"/>
       <c r="L80" s="34"/>
@@ -12074,12 +12112,12 @@
       <c r="A82" s="33"/>
       <c r="B82" s="34"/>
       <c r="C82" s="33"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="40"/>
-      <c r="F82" s="44"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="40"/>
-      <c r="I82" s="44"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="37"/>
       <c r="J82" s="33"/>
       <c r="K82" s="33"/>
       <c r="L82" s="34"/>
@@ -12284,12 +12322,12 @@
       <c r="A88" s="33"/>
       <c r="B88" s="34"/>
       <c r="C88" s="33"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="36"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="36"/>
-      <c r="I88" s="37"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="40"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="40"/>
+      <c r="I88" s="44"/>
       <c r="J88" s="33"/>
       <c r="K88" s="33"/>
       <c r="L88" s="34"/>
@@ -12354,12 +12392,12 @@
       <c r="A90" s="33"/>
       <c r="B90" s="34"/>
       <c r="C90" s="33"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="40"/>
-      <c r="F90" s="44"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="40"/>
-      <c r="I90" s="44"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="37"/>
       <c r="J90" s="33"/>
       <c r="K90" s="33"/>
       <c r="L90" s="34"/>
@@ -12564,12 +12602,12 @@
       <c r="A96" s="33"/>
       <c r="B96" s="34"/>
       <c r="C96" s="33"/>
-      <c r="D96" s="35"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="37"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="40"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="40"/>
+      <c r="I96" s="44"/>
       <c r="J96" s="33"/>
       <c r="K96" s="33"/>
       <c r="L96" s="34"/>
@@ -12634,12 +12672,12 @@
       <c r="A98" s="33"/>
       <c r="B98" s="34"/>
       <c r="C98" s="33"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="40"/>
-      <c r="F98" s="44"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="40"/>
-      <c r="I98" s="44"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="37"/>
       <c r="J98" s="33"/>
       <c r="K98" s="33"/>
       <c r="L98" s="34"/>
@@ -12844,12 +12882,12 @@
       <c r="A104" s="33"/>
       <c r="B104" s="34"/>
       <c r="C104" s="33"/>
-      <c r="D104" s="35"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="35"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="37"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="40"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="40"/>
+      <c r="I104" s="44"/>
       <c r="J104" s="33"/>
       <c r="K104" s="33"/>
       <c r="L104" s="34"/>
@@ -12914,12 +12952,12 @@
       <c r="A106" s="33"/>
       <c r="B106" s="34"/>
       <c r="C106" s="33"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="40"/>
-      <c r="F106" s="44"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="40"/>
-      <c r="I106" s="44"/>
+      <c r="D106" s="35"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="35"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="37"/>
       <c r="J106" s="33"/>
       <c r="K106" s="33"/>
       <c r="L106" s="34"/>
@@ -13124,12 +13162,12 @@
       <c r="A112" s="33"/>
       <c r="B112" s="34"/>
       <c r="C112" s="33"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="36"/>
-      <c r="I112" s="37"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="40"/>
+      <c r="I112" s="44"/>
       <c r="J112" s="33"/>
       <c r="K112" s="33"/>
       <c r="L112" s="34"/>
@@ -13194,12 +13232,12 @@
       <c r="A114" s="33"/>
       <c r="B114" s="34"/>
       <c r="C114" s="33"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="40"/>
-      <c r="F114" s="44"/>
-      <c r="G114" s="39"/>
-      <c r="H114" s="40"/>
-      <c r="I114" s="44"/>
+      <c r="D114" s="35"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="37"/>
       <c r="J114" s="33"/>
       <c r="K114" s="33"/>
       <c r="L114" s="34"/>
@@ -13404,12 +13442,12 @@
       <c r="A120" s="33"/>
       <c r="B120" s="34"/>
       <c r="C120" s="33"/>
-      <c r="D120" s="35"/>
-      <c r="E120" s="36"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="35"/>
-      <c r="H120" s="36"/>
-      <c r="I120" s="37"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="40"/>
+      <c r="I120" s="44"/>
       <c r="J120" s="33"/>
       <c r="K120" s="33"/>
       <c r="L120" s="34"/>
@@ -13474,12 +13512,12 @@
       <c r="A122" s="33"/>
       <c r="B122" s="34"/>
       <c r="C122" s="33"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="40"/>
-      <c r="F122" s="44"/>
-      <c r="G122" s="39"/>
-      <c r="H122" s="40"/>
-      <c r="I122" s="44"/>
+      <c r="D122" s="35"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="36"/>
+      <c r="I122" s="37"/>
       <c r="J122" s="33"/>
       <c r="K122" s="33"/>
       <c r="L122" s="34"/>
@@ -13684,12 +13722,12 @@
       <c r="A128" s="33"/>
       <c r="B128" s="34"/>
       <c r="C128" s="33"/>
-      <c r="D128" s="35"/>
-      <c r="E128" s="36"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="35"/>
-      <c r="H128" s="36"/>
-      <c r="I128" s="37"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="40"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="40"/>
+      <c r="I128" s="44"/>
       <c r="J128" s="33"/>
       <c r="K128" s="33"/>
       <c r="L128" s="34"/>
@@ -13754,12 +13792,12 @@
       <c r="A130" s="33"/>
       <c r="B130" s="34"/>
       <c r="C130" s="33"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="40"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="40"/>
-      <c r="I130" s="44"/>
+      <c r="D130" s="35"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="36"/>
+      <c r="I130" s="37"/>
       <c r="J130" s="33"/>
       <c r="K130" s="33"/>
       <c r="L130" s="34"/>
@@ -13964,12 +14002,12 @@
       <c r="A136" s="33"/>
       <c r="B136" s="34"/>
       <c r="C136" s="33"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="37"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="40"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="40"/>
+      <c r="I136" s="44"/>
       <c r="J136" s="33"/>
       <c r="K136" s="33"/>
       <c r="L136" s="34"/>
@@ -14034,12 +14072,12 @@
       <c r="A138" s="33"/>
       <c r="B138" s="34"/>
       <c r="C138" s="33"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="40"/>
-      <c r="F138" s="44"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="40"/>
-      <c r="I138" s="44"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="36"/>
+      <c r="I138" s="37"/>
       <c r="J138" s="33"/>
       <c r="K138" s="33"/>
       <c r="L138" s="34"/>
@@ -14244,12 +14282,12 @@
       <c r="A144" s="33"/>
       <c r="B144" s="34"/>
       <c r="C144" s="33"/>
-      <c r="D144" s="35"/>
-      <c r="E144" s="36"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="35"/>
-      <c r="H144" s="36"/>
-      <c r="I144" s="37"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="44"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="40"/>
+      <c r="I144" s="44"/>
       <c r="J144" s="33"/>
       <c r="K144" s="33"/>
       <c r="L144" s="34"/>
@@ -14314,12 +14352,12 @@
       <c r="A146" s="33"/>
       <c r="B146" s="34"/>
       <c r="C146" s="33"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="40"/>
-      <c r="F146" s="44"/>
-      <c r="G146" s="39"/>
-      <c r="H146" s="40"/>
-      <c r="I146" s="44"/>
+      <c r="D146" s="35"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="37"/>
+      <c r="G146" s="35"/>
+      <c r="H146" s="36"/>
+      <c r="I146" s="37"/>
       <c r="J146" s="33"/>
       <c r="K146" s="33"/>
       <c r="L146" s="34"/>
@@ -14524,12 +14562,12 @@
       <c r="A152" s="33"/>
       <c r="B152" s="34"/>
       <c r="C152" s="33"/>
-      <c r="D152" s="35"/>
-      <c r="E152" s="36"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="35"/>
-      <c r="H152" s="36"/>
-      <c r="I152" s="37"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="40"/>
+      <c r="F152" s="44"/>
+      <c r="G152" s="39"/>
+      <c r="H152" s="40"/>
+      <c r="I152" s="44"/>
       <c r="J152" s="33"/>
       <c r="K152" s="33"/>
       <c r="L152" s="34"/>
@@ -14594,12 +14632,12 @@
       <c r="A154" s="33"/>
       <c r="B154" s="34"/>
       <c r="C154" s="33"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="40"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="39"/>
-      <c r="H154" s="40"/>
-      <c r="I154" s="44"/>
+      <c r="D154" s="35"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="35"/>
+      <c r="H154" s="36"/>
+      <c r="I154" s="37"/>
       <c r="J154" s="33"/>
       <c r="K154" s="33"/>
       <c r="L154" s="34"/>
@@ -14804,12 +14842,12 @@
       <c r="A160" s="33"/>
       <c r="B160" s="34"/>
       <c r="C160" s="33"/>
-      <c r="D160" s="35"/>
-      <c r="E160" s="36"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="35"/>
-      <c r="H160" s="36"/>
-      <c r="I160" s="37"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="40"/>
+      <c r="F160" s="44"/>
+      <c r="G160" s="39"/>
+      <c r="H160" s="40"/>
+      <c r="I160" s="44"/>
       <c r="J160" s="33"/>
       <c r="K160" s="33"/>
       <c r="L160" s="34"/>
@@ -14874,12 +14912,12 @@
       <c r="A162" s="33"/>
       <c r="B162" s="34"/>
       <c r="C162" s="33"/>
-      <c r="D162" s="39"/>
-      <c r="E162" s="40"/>
-      <c r="F162" s="44"/>
-      <c r="G162" s="39"/>
-      <c r="H162" s="40"/>
-      <c r="I162" s="44"/>
+      <c r="D162" s="35"/>
+      <c r="E162" s="36"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="35"/>
+      <c r="H162" s="36"/>
+      <c r="I162" s="37"/>
       <c r="J162" s="33"/>
       <c r="K162" s="33"/>
       <c r="L162" s="34"/>
@@ -15084,12 +15122,12 @@
       <c r="A168" s="33"/>
       <c r="B168" s="34"/>
       <c r="C168" s="33"/>
-      <c r="D168" s="35"/>
-      <c r="E168" s="36"/>
-      <c r="F168" s="37"/>
-      <c r="G168" s="35"/>
-      <c r="H168" s="36"/>
-      <c r="I168" s="37"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="40"/>
+      <c r="F168" s="44"/>
+      <c r="G168" s="39"/>
+      <c r="H168" s="40"/>
+      <c r="I168" s="44"/>
       <c r="J168" s="33"/>
       <c r="K168" s="33"/>
       <c r="L168" s="34"/>
@@ -15154,12 +15192,12 @@
       <c r="A170" s="33"/>
       <c r="B170" s="34"/>
       <c r="C170" s="33"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="40"/>
-      <c r="F170" s="44"/>
-      <c r="G170" s="39"/>
-      <c r="H170" s="40"/>
-      <c r="I170" s="44"/>
+      <c r="D170" s="35"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="37"/>
+      <c r="G170" s="35"/>
+      <c r="H170" s="36"/>
+      <c r="I170" s="37"/>
       <c r="J170" s="33"/>
       <c r="K170" s="33"/>
       <c r="L170" s="34"/>
@@ -15364,12 +15402,12 @@
       <c r="A176" s="33"/>
       <c r="B176" s="34"/>
       <c r="C176" s="33"/>
-      <c r="D176" s="35"/>
-      <c r="E176" s="36"/>
-      <c r="F176" s="37"/>
-      <c r="G176" s="35"/>
-      <c r="H176" s="36"/>
-      <c r="I176" s="37"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="40"/>
+      <c r="F176" s="44"/>
+      <c r="G176" s="39"/>
+      <c r="H176" s="40"/>
+      <c r="I176" s="44"/>
       <c r="J176" s="33"/>
       <c r="K176" s="33"/>
       <c r="L176" s="34"/>
@@ -15434,12 +15472,12 @@
       <c r="A178" s="33"/>
       <c r="B178" s="34"/>
       <c r="C178" s="33"/>
-      <c r="D178" s="39"/>
-      <c r="E178" s="40"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="39"/>
-      <c r="H178" s="40"/>
-      <c r="I178" s="44"/>
+      <c r="D178" s="35"/>
+      <c r="E178" s="36"/>
+      <c r="F178" s="37"/>
+      <c r="G178" s="35"/>
+      <c r="H178" s="36"/>
+      <c r="I178" s="37"/>
       <c r="J178" s="33"/>
       <c r="K178" s="33"/>
       <c r="L178" s="34"/>
@@ -15644,12 +15682,12 @@
       <c r="A184" s="33"/>
       <c r="B184" s="34"/>
       <c r="C184" s="33"/>
-      <c r="D184" s="35"/>
-      <c r="E184" s="36"/>
-      <c r="F184" s="37"/>
-      <c r="G184" s="35"/>
-      <c r="H184" s="36"/>
-      <c r="I184" s="37"/>
+      <c r="D184" s="39"/>
+      <c r="E184" s="40"/>
+      <c r="F184" s="44"/>
+      <c r="G184" s="39"/>
+      <c r="H184" s="40"/>
+      <c r="I184" s="44"/>
       <c r="J184" s="33"/>
       <c r="K184" s="33"/>
       <c r="L184" s="34"/>
@@ -15714,12 +15752,12 @@
       <c r="A186" s="33"/>
       <c r="B186" s="34"/>
       <c r="C186" s="33"/>
-      <c r="D186" s="39"/>
-      <c r="E186" s="40"/>
-      <c r="F186" s="44"/>
-      <c r="G186" s="39"/>
-      <c r="H186" s="40"/>
-      <c r="I186" s="44"/>
+      <c r="D186" s="35"/>
+      <c r="E186" s="36"/>
+      <c r="F186" s="37"/>
+      <c r="G186" s="35"/>
+      <c r="H186" s="36"/>
+      <c r="I186" s="37"/>
       <c r="J186" s="33"/>
       <c r="K186" s="33"/>
       <c r="L186" s="34"/>
@@ -15924,12 +15962,12 @@
       <c r="A192" s="33"/>
       <c r="B192" s="34"/>
       <c r="C192" s="33"/>
-      <c r="D192" s="35"/>
-      <c r="E192" s="36"/>
-      <c r="F192" s="37"/>
-      <c r="G192" s="35"/>
-      <c r="H192" s="36"/>
-      <c r="I192" s="37"/>
+      <c r="D192" s="39"/>
+      <c r="E192" s="40"/>
+      <c r="F192" s="44"/>
+      <c r="G192" s="39"/>
+      <c r="H192" s="40"/>
+      <c r="I192" s="44"/>
       <c r="J192" s="33"/>
       <c r="K192" s="33"/>
       <c r="L192" s="34"/>
@@ -15994,12 +16032,12 @@
       <c r="A194" s="33"/>
       <c r="B194" s="34"/>
       <c r="C194" s="33"/>
-      <c r="D194" s="39"/>
-      <c r="E194" s="40"/>
-      <c r="F194" s="44"/>
-      <c r="G194" s="39"/>
-      <c r="H194" s="40"/>
-      <c r="I194" s="44"/>
+      <c r="D194" s="35"/>
+      <c r="E194" s="36"/>
+      <c r="F194" s="37"/>
+      <c r="G194" s="35"/>
+      <c r="H194" s="36"/>
+      <c r="I194" s="37"/>
       <c r="J194" s="33"/>
       <c r="K194" s="33"/>
       <c r="L194" s="34"/>
@@ -16204,12 +16242,12 @@
       <c r="A200" s="33"/>
       <c r="B200" s="34"/>
       <c r="C200" s="33"/>
-      <c r="D200" s="35"/>
-      <c r="E200" s="36"/>
-      <c r="F200" s="37"/>
-      <c r="G200" s="35"/>
-      <c r="H200" s="36"/>
-      <c r="I200" s="37"/>
+      <c r="D200" s="39"/>
+      <c r="E200" s="40"/>
+      <c r="F200" s="44"/>
+      <c r="G200" s="39"/>
+      <c r="H200" s="40"/>
+      <c r="I200" s="44"/>
       <c r="J200" s="33"/>
       <c r="K200" s="33"/>
       <c r="L200" s="34"/>
@@ -16274,12 +16312,12 @@
       <c r="A202" s="33"/>
       <c r="B202" s="34"/>
       <c r="C202" s="33"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="40"/>
-      <c r="F202" s="44"/>
-      <c r="G202" s="39"/>
-      <c r="H202" s="40"/>
-      <c r="I202" s="44"/>
+      <c r="D202" s="35"/>
+      <c r="E202" s="36"/>
+      <c r="F202" s="37"/>
+      <c r="G202" s="35"/>
+      <c r="H202" s="36"/>
+      <c r="I202" s="37"/>
       <c r="J202" s="33"/>
       <c r="K202" s="33"/>
       <c r="L202" s="34"/>
@@ -16484,12 +16522,12 @@
       <c r="A208" s="33"/>
       <c r="B208" s="34"/>
       <c r="C208" s="33"/>
-      <c r="D208" s="35"/>
-      <c r="E208" s="36"/>
-      <c r="F208" s="37"/>
-      <c r="G208" s="35"/>
-      <c r="H208" s="36"/>
-      <c r="I208" s="37"/>
+      <c r="D208" s="39"/>
+      <c r="E208" s="40"/>
+      <c r="F208" s="44"/>
+      <c r="G208" s="39"/>
+      <c r="H208" s="40"/>
+      <c r="I208" s="44"/>
       <c r="J208" s="33"/>
       <c r="K208" s="33"/>
       <c r="L208" s="34"/>
@@ -16554,12 +16592,12 @@
       <c r="A210" s="33"/>
       <c r="B210" s="34"/>
       <c r="C210" s="33"/>
-      <c r="D210" s="39"/>
-      <c r="E210" s="40"/>
-      <c r="F210" s="44"/>
-      <c r="G210" s="39"/>
-      <c r="H210" s="40"/>
-      <c r="I210" s="44"/>
+      <c r="D210" s="35"/>
+      <c r="E210" s="36"/>
+      <c r="F210" s="37"/>
+      <c r="G210" s="35"/>
+      <c r="H210" s="36"/>
+      <c r="I210" s="37"/>
       <c r="J210" s="33"/>
       <c r="K210" s="33"/>
       <c r="L210" s="34"/>
@@ -16764,12 +16802,12 @@
       <c r="A216" s="33"/>
       <c r="B216" s="34"/>
       <c r="C216" s="33"/>
-      <c r="D216" s="35"/>
-      <c r="E216" s="36"/>
-      <c r="F216" s="37"/>
-      <c r="G216" s="35"/>
-      <c r="H216" s="36"/>
-      <c r="I216" s="37"/>
+      <c r="D216" s="39"/>
+      <c r="E216" s="40"/>
+      <c r="F216" s="44"/>
+      <c r="G216" s="39"/>
+      <c r="H216" s="40"/>
+      <c r="I216" s="44"/>
       <c r="J216" s="33"/>
       <c r="K216" s="33"/>
       <c r="L216" s="34"/>
@@ -16834,12 +16872,12 @@
       <c r="A218" s="33"/>
       <c r="B218" s="34"/>
       <c r="C218" s="33"/>
-      <c r="D218" s="39"/>
-      <c r="E218" s="40"/>
-      <c r="F218" s="44"/>
-      <c r="G218" s="39"/>
-      <c r="H218" s="40"/>
-      <c r="I218" s="44"/>
+      <c r="D218" s="35"/>
+      <c r="E218" s="36"/>
+      <c r="F218" s="37"/>
+      <c r="G218" s="35"/>
+      <c r="H218" s="36"/>
+      <c r="I218" s="37"/>
       <c r="J218" s="33"/>
       <c r="K218" s="33"/>
       <c r="L218" s="34"/>
@@ -17044,12 +17082,12 @@
       <c r="A224" s="33"/>
       <c r="B224" s="34"/>
       <c r="C224" s="33"/>
-      <c r="D224" s="35"/>
-      <c r="E224" s="36"/>
-      <c r="F224" s="37"/>
-      <c r="G224" s="35"/>
-      <c r="H224" s="36"/>
-      <c r="I224" s="37"/>
+      <c r="D224" s="39"/>
+      <c r="E224" s="40"/>
+      <c r="F224" s="44"/>
+      <c r="G224" s="39"/>
+      <c r="H224" s="40"/>
+      <c r="I224" s="44"/>
       <c r="J224" s="33"/>
       <c r="K224" s="33"/>
       <c r="L224" s="34"/>
@@ -17114,12 +17152,12 @@
       <c r="A226" s="33"/>
       <c r="B226" s="34"/>
       <c r="C226" s="33"/>
-      <c r="D226" s="39"/>
-      <c r="E226" s="40"/>
-      <c r="F226" s="44"/>
-      <c r="G226" s="39"/>
-      <c r="H226" s="40"/>
-      <c r="I226" s="44"/>
+      <c r="D226" s="35"/>
+      <c r="E226" s="36"/>
+      <c r="F226" s="37"/>
+      <c r="G226" s="35"/>
+      <c r="H226" s="36"/>
+      <c r="I226" s="37"/>
       <c r="J226" s="33"/>
       <c r="K226" s="33"/>
       <c r="L226" s="34"/>
@@ -17324,12 +17362,12 @@
       <c r="A232" s="33"/>
       <c r="B232" s="34"/>
       <c r="C232" s="33"/>
-      <c r="D232" s="35"/>
-      <c r="E232" s="36"/>
-      <c r="F232" s="37"/>
-      <c r="G232" s="35"/>
-      <c r="H232" s="36"/>
-      <c r="I232" s="37"/>
+      <c r="D232" s="39"/>
+      <c r="E232" s="40"/>
+      <c r="F232" s="44"/>
+      <c r="G232" s="39"/>
+      <c r="H232" s="40"/>
+      <c r="I232" s="44"/>
       <c r="J232" s="33"/>
       <c r="K232" s="33"/>
       <c r="L232" s="34"/>
@@ -17394,12 +17432,12 @@
       <c r="A234" s="33"/>
       <c r="B234" s="34"/>
       <c r="C234" s="33"/>
-      <c r="D234" s="39"/>
-      <c r="E234" s="40"/>
-      <c r="F234" s="44"/>
-      <c r="G234" s="39"/>
-      <c r="H234" s="40"/>
-      <c r="I234" s="44"/>
+      <c r="D234" s="35"/>
+      <c r="E234" s="36"/>
+      <c r="F234" s="37"/>
+      <c r="G234" s="35"/>
+      <c r="H234" s="36"/>
+      <c r="I234" s="37"/>
       <c r="J234" s="33"/>
       <c r="K234" s="33"/>
       <c r="L234" s="34"/>
@@ -17604,12 +17642,12 @@
       <c r="A240" s="33"/>
       <c r="B240" s="34"/>
       <c r="C240" s="33"/>
-      <c r="D240" s="35"/>
-      <c r="E240" s="36"/>
-      <c r="F240" s="37"/>
-      <c r="G240" s="35"/>
-      <c r="H240" s="36"/>
-      <c r="I240" s="37"/>
+      <c r="D240" s="39"/>
+      <c r="E240" s="40"/>
+      <c r="F240" s="44"/>
+      <c r="G240" s="39"/>
+      <c r="H240" s="40"/>
+      <c r="I240" s="44"/>
       <c r="J240" s="33"/>
       <c r="K240" s="33"/>
       <c r="L240" s="34"/>
@@ -17674,12 +17712,12 @@
       <c r="A242" s="33"/>
       <c r="B242" s="34"/>
       <c r="C242" s="33"/>
-      <c r="D242" s="39"/>
-      <c r="E242" s="40"/>
-      <c r="F242" s="44"/>
-      <c r="G242" s="39"/>
-      <c r="H242" s="40"/>
-      <c r="I242" s="44"/>
+      <c r="D242" s="35"/>
+      <c r="E242" s="36"/>
+      <c r="F242" s="37"/>
+      <c r="G242" s="35"/>
+      <c r="H242" s="36"/>
+      <c r="I242" s="37"/>
       <c r="J242" s="33"/>
       <c r="K242" s="33"/>
       <c r="L242" s="34"/>
@@ -17884,12 +17922,12 @@
       <c r="A248" s="33"/>
       <c r="B248" s="34"/>
       <c r="C248" s="33"/>
-      <c r="D248" s="35"/>
-      <c r="E248" s="36"/>
-      <c r="F248" s="37"/>
-      <c r="G248" s="35"/>
-      <c r="H248" s="36"/>
-      <c r="I248" s="37"/>
+      <c r="D248" s="39"/>
+      <c r="E248" s="40"/>
+      <c r="F248" s="44"/>
+      <c r="G248" s="39"/>
+      <c r="H248" s="40"/>
+      <c r="I248" s="44"/>
       <c r="J248" s="33"/>
       <c r="K248" s="33"/>
       <c r="L248" s="34"/>
@@ -17954,12 +17992,12 @@
       <c r="A250" s="33"/>
       <c r="B250" s="34"/>
       <c r="C250" s="33"/>
-      <c r="D250" s="39"/>
-      <c r="E250" s="40"/>
-      <c r="F250" s="44"/>
-      <c r="G250" s="39"/>
-      <c r="H250" s="40"/>
-      <c r="I250" s="44"/>
+      <c r="D250" s="35"/>
+      <c r="E250" s="36"/>
+      <c r="F250" s="37"/>
+      <c r="G250" s="35"/>
+      <c r="H250" s="36"/>
+      <c r="I250" s="37"/>
       <c r="J250" s="33"/>
       <c r="K250" s="33"/>
       <c r="L250" s="34"/>
@@ -18164,12 +18202,12 @@
       <c r="A256" s="33"/>
       <c r="B256" s="34"/>
       <c r="C256" s="33"/>
-      <c r="D256" s="35"/>
-      <c r="E256" s="36"/>
-      <c r="F256" s="37"/>
-      <c r="G256" s="35"/>
-      <c r="H256" s="36"/>
-      <c r="I256" s="37"/>
+      <c r="D256" s="39"/>
+      <c r="E256" s="40"/>
+      <c r="F256" s="44"/>
+      <c r="G256" s="39"/>
+      <c r="H256" s="40"/>
+      <c r="I256" s="44"/>
       <c r="J256" s="33"/>
       <c r="K256" s="33"/>
       <c r="L256" s="34"/>
@@ -18234,12 +18272,12 @@
       <c r="A258" s="33"/>
       <c r="B258" s="34"/>
       <c r="C258" s="33"/>
-      <c r="D258" s="39"/>
-      <c r="E258" s="40"/>
-      <c r="F258" s="44"/>
-      <c r="G258" s="39"/>
-      <c r="H258" s="40"/>
-      <c r="I258" s="44"/>
+      <c r="D258" s="35"/>
+      <c r="E258" s="36"/>
+      <c r="F258" s="37"/>
+      <c r="G258" s="35"/>
+      <c r="H258" s="36"/>
+      <c r="I258" s="37"/>
       <c r="J258" s="33"/>
       <c r="K258" s="33"/>
       <c r="L258" s="34"/>
@@ -18444,12 +18482,12 @@
       <c r="A264" s="33"/>
       <c r="B264" s="34"/>
       <c r="C264" s="33"/>
-      <c r="D264" s="35"/>
-      <c r="E264" s="36"/>
-      <c r="F264" s="37"/>
-      <c r="G264" s="35"/>
-      <c r="H264" s="36"/>
-      <c r="I264" s="37"/>
+      <c r="D264" s="39"/>
+      <c r="E264" s="40"/>
+      <c r="F264" s="44"/>
+      <c r="G264" s="39"/>
+      <c r="H264" s="40"/>
+      <c r="I264" s="44"/>
       <c r="J264" s="33"/>
       <c r="K264" s="33"/>
       <c r="L264" s="34"/>
@@ -18514,12 +18552,12 @@
       <c r="A266" s="33"/>
       <c r="B266" s="34"/>
       <c r="C266" s="33"/>
-      <c r="D266" s="39"/>
-      <c r="E266" s="40"/>
-      <c r="F266" s="44"/>
-      <c r="G266" s="39"/>
-      <c r="H266" s="40"/>
-      <c r="I266" s="44"/>
+      <c r="D266" s="35"/>
+      <c r="E266" s="36"/>
+      <c r="F266" s="37"/>
+      <c r="G266" s="35"/>
+      <c r="H266" s="36"/>
+      <c r="I266" s="37"/>
       <c r="J266" s="33"/>
       <c r="K266" s="33"/>
       <c r="L266" s="34"/>
@@ -18724,12 +18762,12 @@
       <c r="A272" s="33"/>
       <c r="B272" s="34"/>
       <c r="C272" s="33"/>
-      <c r="D272" s="35"/>
-      <c r="E272" s="36"/>
-      <c r="F272" s="37"/>
-      <c r="G272" s="35"/>
-      <c r="H272" s="36"/>
-      <c r="I272" s="37"/>
+      <c r="D272" s="39"/>
+      <c r="E272" s="40"/>
+      <c r="F272" s="44"/>
+      <c r="G272" s="39"/>
+      <c r="H272" s="40"/>
+      <c r="I272" s="44"/>
       <c r="J272" s="33"/>
       <c r="K272" s="33"/>
       <c r="L272" s="34"/>
@@ -18794,12 +18832,12 @@
       <c r="A274" s="33"/>
       <c r="B274" s="34"/>
       <c r="C274" s="33"/>
-      <c r="D274" s="39"/>
-      <c r="E274" s="40"/>
-      <c r="F274" s="44"/>
-      <c r="G274" s="39"/>
-      <c r="H274" s="40"/>
-      <c r="I274" s="44"/>
+      <c r="D274" s="35"/>
+      <c r="E274" s="36"/>
+      <c r="F274" s="37"/>
+      <c r="G274" s="35"/>
+      <c r="H274" s="36"/>
+      <c r="I274" s="37"/>
       <c r="J274" s="33"/>
       <c r="K274" s="33"/>
       <c r="L274" s="34"/>
@@ -19004,12 +19042,12 @@
       <c r="A280" s="33"/>
       <c r="B280" s="34"/>
       <c r="C280" s="33"/>
-      <c r="D280" s="35"/>
-      <c r="E280" s="36"/>
-      <c r="F280" s="37"/>
-      <c r="G280" s="35"/>
-      <c r="H280" s="36"/>
-      <c r="I280" s="37"/>
+      <c r="D280" s="39"/>
+      <c r="E280" s="40"/>
+      <c r="F280" s="44"/>
+      <c r="G280" s="39"/>
+      <c r="H280" s="40"/>
+      <c r="I280" s="44"/>
       <c r="J280" s="33"/>
       <c r="K280" s="33"/>
       <c r="L280" s="34"/>
@@ -19074,12 +19112,12 @@
       <c r="A282" s="33"/>
       <c r="B282" s="34"/>
       <c r="C282" s="33"/>
-      <c r="D282" s="39"/>
-      <c r="E282" s="40"/>
-      <c r="F282" s="44"/>
-      <c r="G282" s="39"/>
-      <c r="H282" s="40"/>
-      <c r="I282" s="44"/>
+      <c r="D282" s="35"/>
+      <c r="E282" s="36"/>
+      <c r="F282" s="37"/>
+      <c r="G282" s="35"/>
+      <c r="H282" s="36"/>
+      <c r="I282" s="37"/>
       <c r="J282" s="33"/>
       <c r="K282" s="33"/>
       <c r="L282" s="34"/>
@@ -19284,12 +19322,12 @@
       <c r="A288" s="33"/>
       <c r="B288" s="34"/>
       <c r="C288" s="33"/>
-      <c r="D288" s="35"/>
-      <c r="E288" s="36"/>
-      <c r="F288" s="37"/>
-      <c r="G288" s="35"/>
-      <c r="H288" s="36"/>
-      <c r="I288" s="37"/>
+      <c r="D288" s="39"/>
+      <c r="E288" s="40"/>
+      <c r="F288" s="44"/>
+      <c r="G288" s="39"/>
+      <c r="H288" s="40"/>
+      <c r="I288" s="44"/>
       <c r="J288" s="33"/>
       <c r="K288" s="33"/>
       <c r="L288" s="34"/>
@@ -19354,12 +19392,12 @@
       <c r="A290" s="33"/>
       <c r="B290" s="34"/>
       <c r="C290" s="33"/>
-      <c r="D290" s="39"/>
-      <c r="E290" s="40"/>
-      <c r="F290" s="44"/>
-      <c r="G290" s="39"/>
-      <c r="H290" s="40"/>
-      <c r="I290" s="44"/>
+      <c r="D290" s="35"/>
+      <c r="E290" s="36"/>
+      <c r="F290" s="37"/>
+      <c r="G290" s="35"/>
+      <c r="H290" s="36"/>
+      <c r="I290" s="37"/>
       <c r="J290" s="33"/>
       <c r="K290" s="33"/>
       <c r="L290" s="34"/>
@@ -19564,12 +19602,12 @@
       <c r="A296" s="33"/>
       <c r="B296" s="34"/>
       <c r="C296" s="33"/>
-      <c r="D296" s="35"/>
-      <c r="E296" s="36"/>
-      <c r="F296" s="37"/>
-      <c r="G296" s="35"/>
-      <c r="H296" s="36"/>
-      <c r="I296" s="37"/>
+      <c r="D296" s="39"/>
+      <c r="E296" s="40"/>
+      <c r="F296" s="44"/>
+      <c r="G296" s="39"/>
+      <c r="H296" s="40"/>
+      <c r="I296" s="44"/>
       <c r="J296" s="33"/>
       <c r="K296" s="33"/>
       <c r="L296" s="34"/>
@@ -19634,12 +19672,12 @@
       <c r="A298" s="33"/>
       <c r="B298" s="34"/>
       <c r="C298" s="33"/>
-      <c r="D298" s="39"/>
-      <c r="E298" s="40"/>
-      <c r="F298" s="44"/>
-      <c r="G298" s="39"/>
-      <c r="H298" s="40"/>
-      <c r="I298" s="44"/>
+      <c r="D298" s="35"/>
+      <c r="E298" s="36"/>
+      <c r="F298" s="37"/>
+      <c r="G298" s="35"/>
+      <c r="H298" s="36"/>
+      <c r="I298" s="37"/>
       <c r="J298" s="33"/>
       <c r="K298" s="33"/>
       <c r="L298" s="34"/>
@@ -19844,12 +19882,12 @@
       <c r="A304" s="33"/>
       <c r="B304" s="34"/>
       <c r="C304" s="33"/>
-      <c r="D304" s="35"/>
-      <c r="E304" s="36"/>
-      <c r="F304" s="37"/>
-      <c r="G304" s="35"/>
-      <c r="H304" s="36"/>
-      <c r="I304" s="37"/>
+      <c r="D304" s="39"/>
+      <c r="E304" s="40"/>
+      <c r="F304" s="44"/>
+      <c r="G304" s="39"/>
+      <c r="H304" s="40"/>
+      <c r="I304" s="44"/>
       <c r="J304" s="33"/>
       <c r="K304" s="33"/>
       <c r="L304" s="34"/>
@@ -19914,12 +19952,12 @@
       <c r="A306" s="33"/>
       <c r="B306" s="34"/>
       <c r="C306" s="33"/>
-      <c r="D306" s="39"/>
-      <c r="E306" s="40"/>
-      <c r="F306" s="44"/>
-      <c r="G306" s="39"/>
-      <c r="H306" s="40"/>
-      <c r="I306" s="44"/>
+      <c r="D306" s="35"/>
+      <c r="E306" s="36"/>
+      <c r="F306" s="37"/>
+      <c r="G306" s="35"/>
+      <c r="H306" s="36"/>
+      <c r="I306" s="37"/>
       <c r="J306" s="33"/>
       <c r="K306" s="33"/>
       <c r="L306" s="34"/>
@@ -20124,12 +20162,12 @@
       <c r="A312" s="33"/>
       <c r="B312" s="34"/>
       <c r="C312" s="33"/>
-      <c r="D312" s="35"/>
-      <c r="E312" s="36"/>
-      <c r="F312" s="37"/>
-      <c r="G312" s="35"/>
-      <c r="H312" s="36"/>
-      <c r="I312" s="37"/>
+      <c r="D312" s="39"/>
+      <c r="E312" s="40"/>
+      <c r="F312" s="44"/>
+      <c r="G312" s="39"/>
+      <c r="H312" s="40"/>
+      <c r="I312" s="44"/>
       <c r="J312" s="33"/>
       <c r="K312" s="33"/>
       <c r="L312" s="34"/>
@@ -20194,12 +20232,12 @@
       <c r="A314" s="33"/>
       <c r="B314" s="34"/>
       <c r="C314" s="33"/>
-      <c r="D314" s="39"/>
-      <c r="E314" s="40"/>
-      <c r="F314" s="44"/>
-      <c r="G314" s="39"/>
-      <c r="H314" s="40"/>
-      <c r="I314" s="44"/>
+      <c r="D314" s="35"/>
+      <c r="E314" s="36"/>
+      <c r="F314" s="37"/>
+      <c r="G314" s="35"/>
+      <c r="H314" s="36"/>
+      <c r="I314" s="37"/>
       <c r="J314" s="33"/>
       <c r="K314" s="33"/>
       <c r="L314" s="34"/>
@@ -20404,12 +20442,12 @@
       <c r="A320" s="33"/>
       <c r="B320" s="34"/>
       <c r="C320" s="33"/>
-      <c r="D320" s="35"/>
-      <c r="E320" s="36"/>
-      <c r="F320" s="37"/>
-      <c r="G320" s="35"/>
-      <c r="H320" s="36"/>
-      <c r="I320" s="37"/>
+      <c r="D320" s="39"/>
+      <c r="E320" s="40"/>
+      <c r="F320" s="44"/>
+      <c r="G320" s="39"/>
+      <c r="H320" s="40"/>
+      <c r="I320" s="44"/>
       <c r="J320" s="33"/>
       <c r="K320" s="33"/>
       <c r="L320" s="34"/>
@@ -20474,12 +20512,12 @@
       <c r="A322" s="33"/>
       <c r="B322" s="34"/>
       <c r="C322" s="33"/>
-      <c r="D322" s="39"/>
-      <c r="E322" s="40"/>
-      <c r="F322" s="44"/>
-      <c r="G322" s="39"/>
-      <c r="H322" s="40"/>
-      <c r="I322" s="44"/>
+      <c r="D322" s="35"/>
+      <c r="E322" s="36"/>
+      <c r="F322" s="37"/>
+      <c r="G322" s="35"/>
+      <c r="H322" s="36"/>
+      <c r="I322" s="37"/>
       <c r="J322" s="33"/>
       <c r="K322" s="33"/>
       <c r="L322" s="34"/>
@@ -20824,12 +20862,12 @@
       <c r="A332" s="33"/>
       <c r="B332" s="34"/>
       <c r="C332" s="33"/>
-      <c r="D332" s="35"/>
-      <c r="E332" s="36"/>
-      <c r="F332" s="37"/>
-      <c r="G332" s="35"/>
-      <c r="H332" s="36"/>
-      <c r="I332" s="37"/>
+      <c r="D332" s="39"/>
+      <c r="E332" s="40"/>
+      <c r="F332" s="44"/>
+      <c r="G332" s="39"/>
+      <c r="H332" s="40"/>
+      <c r="I332" s="44"/>
       <c r="J332" s="33"/>
       <c r="K332" s="33"/>
       <c r="L332" s="34"/>
@@ -20894,12 +20932,12 @@
       <c r="A334" s="33"/>
       <c r="B334" s="34"/>
       <c r="C334" s="33"/>
-      <c r="D334" s="39"/>
-      <c r="E334" s="40"/>
-      <c r="F334" s="44"/>
-      <c r="G334" s="39"/>
-      <c r="H334" s="40"/>
-      <c r="I334" s="44"/>
+      <c r="D334" s="35"/>
+      <c r="E334" s="36"/>
+      <c r="F334" s="37"/>
+      <c r="G334" s="35"/>
+      <c r="H334" s="36"/>
+      <c r="I334" s="37"/>
       <c r="J334" s="33"/>
       <c r="K334" s="33"/>
       <c r="L334" s="34"/>
@@ -21244,12 +21282,12 @@
       <c r="A344" s="33"/>
       <c r="B344" s="34"/>
       <c r="C344" s="33"/>
-      <c r="D344" s="35"/>
-      <c r="E344" s="36"/>
-      <c r="F344" s="37"/>
-      <c r="G344" s="35"/>
-      <c r="H344" s="36"/>
-      <c r="I344" s="37"/>
+      <c r="D344" s="39"/>
+      <c r="E344" s="40"/>
+      <c r="F344" s="44"/>
+      <c r="G344" s="39"/>
+      <c r="H344" s="40"/>
+      <c r="I344" s="44"/>
       <c r="J344" s="33"/>
       <c r="K344" s="33"/>
       <c r="L344" s="34"/>
@@ -21314,12 +21352,12 @@
       <c r="A346" s="33"/>
       <c r="B346" s="34"/>
       <c r="C346" s="33"/>
-      <c r="D346" s="39"/>
-      <c r="E346" s="40"/>
-      <c r="F346" s="44"/>
-      <c r="G346" s="39"/>
-      <c r="H346" s="40"/>
-      <c r="I346" s="44"/>
+      <c r="D346" s="35"/>
+      <c r="E346" s="36"/>
+      <c r="F346" s="37"/>
+      <c r="G346" s="35"/>
+      <c r="H346" s="36"/>
+      <c r="I346" s="37"/>
       <c r="J346" s="33"/>
       <c r="K346" s="33"/>
       <c r="L346" s="34"/>
@@ -21664,12 +21702,12 @@
       <c r="A356" s="33"/>
       <c r="B356" s="34"/>
       <c r="C356" s="33"/>
-      <c r="D356" s="35"/>
-      <c r="E356" s="36"/>
-      <c r="F356" s="37"/>
-      <c r="G356" s="35"/>
-      <c r="H356" s="36"/>
-      <c r="I356" s="37"/>
+      <c r="D356" s="39"/>
+      <c r="E356" s="40"/>
+      <c r="F356" s="44"/>
+      <c r="G356" s="39"/>
+      <c r="H356" s="40"/>
+      <c r="I356" s="44"/>
       <c r="J356" s="33"/>
       <c r="K356" s="33"/>
       <c r="L356" s="34"/>
@@ -21734,12 +21772,12 @@
       <c r="A358" s="33"/>
       <c r="B358" s="34"/>
       <c r="C358" s="33"/>
-      <c r="D358" s="39"/>
-      <c r="E358" s="40"/>
-      <c r="F358" s="44"/>
-      <c r="G358" s="39"/>
-      <c r="H358" s="40"/>
-      <c r="I358" s="44"/>
+      <c r="D358" s="35"/>
+      <c r="E358" s="36"/>
+      <c r="F358" s="37"/>
+      <c r="G358" s="35"/>
+      <c r="H358" s="36"/>
+      <c r="I358" s="37"/>
       <c r="J358" s="33"/>
       <c r="K358" s="33"/>
       <c r="L358" s="34"/>
@@ -22084,12 +22122,12 @@
       <c r="A368" s="33"/>
       <c r="B368" s="34"/>
       <c r="C368" s="33"/>
-      <c r="D368" s="35"/>
-      <c r="E368" s="36"/>
-      <c r="F368" s="37"/>
-      <c r="G368" s="35"/>
-      <c r="H368" s="36"/>
-      <c r="I368" s="37"/>
+      <c r="D368" s="39"/>
+      <c r="E368" s="40"/>
+      <c r="F368" s="44"/>
+      <c r="G368" s="39"/>
+      <c r="H368" s="40"/>
+      <c r="I368" s="44"/>
       <c r="J368" s="33"/>
       <c r="K368" s="33"/>
       <c r="L368" s="34"/>
@@ -22154,12 +22192,12 @@
       <c r="A370" s="33"/>
       <c r="B370" s="34"/>
       <c r="C370" s="33"/>
-      <c r="D370" s="39"/>
-      <c r="E370" s="40"/>
-      <c r="F370" s="44"/>
-      <c r="G370" s="39"/>
-      <c r="H370" s="40"/>
-      <c r="I370" s="44"/>
+      <c r="D370" s="35"/>
+      <c r="E370" s="36"/>
+      <c r="F370" s="37"/>
+      <c r="G370" s="35"/>
+      <c r="H370" s="36"/>
+      <c r="I370" s="37"/>
       <c r="J370" s="33"/>
       <c r="K370" s="33"/>
       <c r="L370" s="34"/>
@@ -22185,7 +22223,7 @@
       <c r="AF370" s="34"/>
       <c r="AG370" s="38"/>
     </row>
-    <row r="371" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="24"/>
       <c r="B371" s="25"/>
       <c r="C371" s="24"/>
@@ -22220,70 +22258,140 @@
       <c r="AF371" s="25"/>
       <c r="AG371" s="29"/>
     </row>
-    <row r="372" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A372" s="46"/>
-      <c r="B372" s="46"/>
-      <c r="C372" s="46"/>
-      <c r="D372" s="46"/>
-      <c r="E372" s="46"/>
-      <c r="F372" s="46"/>
-      <c r="G372" s="46"/>
-      <c r="H372" s="46"/>
-      <c r="I372" s="46"/>
-      <c r="J372" s="46"/>
-      <c r="K372" s="46"/>
-      <c r="L372" s="46"/>
-      <c r="M372" s="46"/>
-      <c r="N372" s="46"/>
-      <c r="O372" s="46"/>
-      <c r="P372" s="46"/>
-      <c r="Q372" s="46"/>
-      <c r="R372" s="46"/>
-      <c r="S372" s="46"/>
-      <c r="T372" s="46"/>
-      <c r="U372" s="46"/>
-      <c r="V372" s="46"/>
-      <c r="W372" s="46"/>
-      <c r="X372" s="46"/>
-      <c r="Y372" s="46"/>
-      <c r="Z372" s="46"/>
-      <c r="AA372" s="46"/>
-      <c r="AB372" s="46"/>
-      <c r="AC372" s="46"/>
-      <c r="AD372" s="46"/>
-      <c r="AE372" s="46"/>
-      <c r="AF372" s="46"/>
-      <c r="AG372" s="46"/>
-    </row>
-    <row r="374" spans="1:33" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" spans="1:33" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" spans="1:33" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="33"/>
+      <c r="B372" s="34"/>
+      <c r="C372" s="33"/>
+      <c r="D372" s="39"/>
+      <c r="E372" s="40"/>
+      <c r="F372" s="44"/>
+      <c r="G372" s="39"/>
+      <c r="H372" s="40"/>
+      <c r="I372" s="44"/>
+      <c r="J372" s="33"/>
+      <c r="K372" s="33"/>
+      <c r="L372" s="34"/>
+      <c r="M372" s="34"/>
+      <c r="N372" s="34"/>
+      <c r="O372" s="34"/>
+      <c r="P372" s="34"/>
+      <c r="Q372" s="33"/>
+      <c r="R372" s="38"/>
+      <c r="S372" s="33"/>
+      <c r="T372" s="33"/>
+      <c r="U372" s="34"/>
+      <c r="V372" s="34"/>
+      <c r="W372" s="34"/>
+      <c r="X372" s="34"/>
+      <c r="Y372" s="34"/>
+      <c r="Z372" s="33"/>
+      <c r="AA372" s="38"/>
+      <c r="AB372" s="39"/>
+      <c r="AC372" s="34"/>
+      <c r="AD372" s="34"/>
+      <c r="AE372" s="34"/>
+      <c r="AF372" s="34"/>
+      <c r="AG372" s="38"/>
+    </row>
+    <row r="373" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="24"/>
+      <c r="B373" s="25"/>
+      <c r="C373" s="24"/>
+      <c r="D373" s="26"/>
+      <c r="E373" s="27"/>
+      <c r="F373" s="28"/>
+      <c r="G373" s="26"/>
+      <c r="H373" s="27"/>
+      <c r="I373" s="28"/>
+      <c r="J373" s="24"/>
+      <c r="K373" s="24"/>
+      <c r="L373" s="25"/>
+      <c r="M373" s="25"/>
+      <c r="N373" s="25"/>
+      <c r="O373" s="25"/>
+      <c r="P373" s="25"/>
+      <c r="Q373" s="24"/>
+      <c r="R373" s="29"/>
+      <c r="S373" s="24"/>
+      <c r="T373" s="24"/>
+      <c r="U373" s="25"/>
+      <c r="V373" s="25"/>
+      <c r="W373" s="25"/>
+      <c r="X373" s="25"/>
+      <c r="Y373" s="25"/>
+      <c r="Z373" s="24"/>
+      <c r="AA373" s="29"/>
+      <c r="AB373" s="26"/>
+      <c r="AC373" s="25"/>
+      <c r="AD373" s="25"/>
+      <c r="AE373" s="25"/>
+      <c r="AF373" s="25"/>
+      <c r="AG373" s="29"/>
+    </row>
+    <row r="374" spans="1:33" s="1" customFormat="1" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="46"/>
+      <c r="B374" s="46"/>
+      <c r="C374" s="46"/>
+      <c r="D374" s="46"/>
+      <c r="E374" s="46"/>
+      <c r="F374" s="46"/>
+      <c r="G374" s="46"/>
+      <c r="H374" s="46"/>
+      <c r="I374" s="46"/>
+      <c r="J374" s="46"/>
+      <c r="K374" s="46"/>
+      <c r="L374" s="46"/>
+      <c r="M374" s="46"/>
+      <c r="N374" s="46"/>
+      <c r="O374" s="46"/>
+      <c r="P374" s="46"/>
+      <c r="Q374" s="46"/>
+      <c r="R374" s="46"/>
+      <c r="S374" s="46"/>
+      <c r="T374" s="46"/>
+      <c r="U374" s="46"/>
+      <c r="V374" s="46"/>
+      <c r="W374" s="46"/>
+      <c r="X374" s="46"/>
+      <c r="Y374" s="46"/>
+      <c r="Z374" s="46"/>
+      <c r="AA374" s="46"/>
+      <c r="AB374" s="46"/>
+      <c r="AC374" s="46"/>
+      <c r="AD374" s="46"/>
+      <c r="AE374" s="46"/>
+      <c r="AF374" s="46"/>
+      <c r="AG374" s="46"/>
+    </row>
+    <row r="376" spans="1:33" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" spans="1:33" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="1:33" s="1" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:C3"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="J2:R2"/>
-    <mergeCell ref="S2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A1:AG1"/>
-    <mergeCell ref="AE3:AG3"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A4:C5"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:R4"/>
+    <mergeCell ref="S4:AA4"/>
+    <mergeCell ref="AB4:AG4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:O5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="A3:AG3"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:O7"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="S7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:R5"/>
-    <mergeCell ref="S5:X5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
     <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AB5:AD5"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157505" right="0.39370078740157505" top="0.39370078740157505" bottom="0.39370078740157505" header="0.39370078740157505" footer="0.39370078740157505"/>
